--- a/Cek Laporan/Evaluasi Laporan Keuangan dan Piutang.xlsx
+++ b/Cek Laporan/Evaluasi Laporan Keuangan dan Piutang.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
   <si>
     <t>Detail Angsuran</t>
   </si>
@@ -1683,9 +1683,6 @@
     <t>27396, 27397 (kas 101, piutang 103); 27398, 27399 (kas 101, pendapatan jasa 401)</t>
   </si>
   <si>
-    <t>Transaksi Angsuran Bulan ke-7 a.n.MASYHADI ROSYID nomor_nasabah: 200862 Tanggal Diberikan pinjaman: 2018-06-28</t>
-  </si>
-  <si>
     <t>&lt;= 2018-07-31</t>
   </si>
   <si>
@@ -1723,6 +1720,30 @@
   </si>
   <si>
     <t>&lt;= 2018-07-29</t>
+  </si>
+  <si>
+    <t>&lt;= 2018-07-26</t>
+  </si>
+  <si>
+    <t>&lt;= 2018-07-28</t>
+  </si>
+  <si>
+    <t>&lt;= 2018-07-27</t>
+  </si>
+  <si>
+    <t>Karena id 27366, 27367(kas 101, piutang 103); 27368, 27369 (kas 101, pendapatan jasa 401) ada di transaksi_akuntansi tetapi di detail angsuran tidak ada pada tanggal 2018-07-27. Diedit tanggal tanpa unpost terlebih dahulu</t>
+  </si>
+  <si>
+    <t>27376, 27377 (kas 101, piutang 103); 27378, 27379 (kas 101, pendapatan jasa 401)</t>
+  </si>
+  <si>
+    <t>Transaksi Angsuran Bulan ke-7 a.n. MASYHADI ROSYID nomor_nasabah: 200862 Tanggal Diberikan pinjaman: 2018-06-28</t>
+  </si>
+  <si>
+    <t>27366, 27367 (kas 101, piutang 103); 27368, 27366 (kas 101, pendapatan jasa 401)</t>
+  </si>
+  <si>
+    <t>Transaksi Angsuran Bulan ke-6 a.n. YAKUP nomor_nasabah: 202208 Tanggal Diberikan pinjaman: 2018-07-27</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1943,7 +1964,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1951,7 +1971,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1972,6 +1991,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2307,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M82"/>
+  <dimension ref="B2:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,19 +2356,19 @@
   <sheetData>
     <row r="2" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="G2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="K2" s="13" t="s">
         <v>34</v>
       </c>
@@ -2410,11 +2438,11 @@
         <v>173883857</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" ref="E5:E78" si="0">C5-D5</f>
+        <f t="shared" ref="E5:E82" si="0">C5-D5</f>
         <v>423526143</v>
       </c>
       <c r="F5" s="17">
-        <f t="shared" ref="F5:F78" si="1">E5-I5</f>
+        <f t="shared" ref="F5:F82" si="1">E5-I5</f>
         <v>0</v>
       </c>
       <c r="G5" s="6">
@@ -2424,7 +2452,7 @@
         <v>173883857</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" ref="I5:I78" si="2">G5-H5</f>
+        <f t="shared" ref="I5:I82" si="2">G5-H5</f>
         <v>423526143</v>
       </c>
       <c r="K5" s="15"/>
@@ -4127,7 +4155,7 @@
     </row>
     <row r="61" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="6">
         <v>1505125000</v>
@@ -4157,7 +4185,7 @@
     </row>
     <row r="62" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" s="6">
         <v>1523625000</v>
@@ -4187,7 +4215,7 @@
     </row>
     <row r="63" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="6">
         <v>1566225000</v>
@@ -4217,7 +4245,7 @@
     </row>
     <row r="64" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="6">
         <v>1566225000</v>
@@ -4247,7 +4275,7 @@
     </row>
     <row r="65" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="6">
         <v>1566225000</v>
@@ -4277,7 +4305,7 @@
     </row>
     <row r="66" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="6">
         <v>1572725000</v>
@@ -4307,7 +4335,7 @@
     </row>
     <row r="67" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="1">
         <v>1576725000</v>
@@ -4337,7 +4365,7 @@
     </row>
     <row r="68" spans="2:12" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="8">
         <v>1597225000</v>
@@ -4364,7 +4392,7 @@
         <v>1257770152</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L68" s="6">
         <v>27377</v>
@@ -4372,7 +4400,7 @@
     </row>
     <row r="69" spans="2:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="8">
         <v>1576725000</v>
@@ -4403,189 +4431,241 @@
       </c>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+    <row r="70" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="1">
+        <v>1606225000</v>
+      </c>
+      <c r="D70" s="6">
+        <v>340054848</v>
+      </c>
+      <c r="E70" s="12">
+        <f t="shared" si="0"/>
+        <v>1266170152</v>
+      </c>
+      <c r="F70" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1606225000</v>
+      </c>
+      <c r="H70" s="1">
+        <v>340054848</v>
+      </c>
+      <c r="I70" s="12">
+        <f t="shared" si="2"/>
+        <v>1266170152</v>
+      </c>
+      <c r="K70" s="15"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="8">
         <v>1623725000</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D71" s="8">
         <v>343887348</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <f t="shared" si="0"/>
         <v>1279837652</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F71" s="18">
         <f t="shared" si="1"/>
         <v>-350000</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G71" s="8">
         <v>1623725000</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H71" s="8">
         <v>343537348</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I71" s="9">
         <f t="shared" si="2"/>
         <v>1280187652</v>
       </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="8"/>
-    </row>
-    <row r="71" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+      <c r="K71" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L71" s="8">
+        <v>27367</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1623725000</v>
+      </c>
+      <c r="D72" s="8">
+        <v>343537348</v>
+      </c>
+      <c r="E72" s="9">
+        <f t="shared" si="0"/>
+        <v>1280187652</v>
+      </c>
+      <c r="F72" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="8">
+        <v>1623725000</v>
+      </c>
+      <c r="H72" s="10">
+        <v>343537348</v>
+      </c>
+      <c r="I72" s="9">
+        <f t="shared" si="2"/>
+        <v>1280187652</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1623725000</v>
+      </c>
+      <c r="D73" s="1">
+        <v>343537348</v>
+      </c>
+      <c r="E73" s="12">
+        <f t="shared" si="0"/>
+        <v>1280187652</v>
+      </c>
+      <c r="F73" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1623725000</v>
+      </c>
+      <c r="H73" s="1">
+        <v>343537348</v>
+      </c>
+      <c r="I73" s="12">
+        <f t="shared" si="2"/>
+        <v>1280187652</v>
+      </c>
+      <c r="K73" s="15"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C74" s="6">
+        <v>1623725000</v>
+      </c>
+      <c r="D74" s="6">
+        <v>343537348</v>
+      </c>
+      <c r="E74" s="12">
+        <f t="shared" si="0"/>
+        <v>1280187652</v>
+      </c>
+      <c r="F74" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1623725000</v>
+      </c>
+      <c r="H74" s="6">
+        <v>343537348</v>
+      </c>
+      <c r="I74" s="12">
+        <f t="shared" si="2"/>
+        <v>1280187652</v>
+      </c>
+      <c r="K74" s="15"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="1">
         <v>1634725000</v>
       </c>
-      <c r="D71" s="6">
-        <v>347807348</v>
-      </c>
-      <c r="E71" s="9">
-        <f t="shared" si="0"/>
-        <v>1286917652</v>
-      </c>
-      <c r="F71" s="18">
-        <f t="shared" si="1"/>
-        <v>-350000</v>
-      </c>
-      <c r="G71" s="6">
+      <c r="D75" s="1">
+        <v>347457348</v>
+      </c>
+      <c r="E75" s="12">
+        <f t="shared" si="0"/>
+        <v>1287267652</v>
+      </c>
+      <c r="F75" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
         <v>1634725000</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H75" s="6">
         <v>347457348</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I75" s="12">
         <f t="shared" si="2"/>
         <v>1287267652</v>
       </c>
-      <c r="K71" s="16"/>
-      <c r="L71" s="6"/>
-    </row>
-    <row r="72" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="8">
+      <c r="K75" s="15"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="6">
         <v>1641175000</v>
       </c>
-      <c r="D72" s="8">
-        <v>350847348</v>
-      </c>
-      <c r="E72" s="9">
-        <f t="shared" si="0"/>
-        <v>1290327652</v>
-      </c>
-      <c r="F72" s="18">
-        <f t="shared" si="1"/>
-        <v>-700000</v>
-      </c>
-      <c r="G72" s="10">
+      <c r="D76" s="6">
+        <v>350147348</v>
+      </c>
+      <c r="E76" s="12">
+        <f t="shared" si="0"/>
+        <v>1291027652</v>
+      </c>
+      <c r="F76" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
         <v>1641175000</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H76" s="1">
         <v>350147348</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I76" s="12">
         <f t="shared" si="2"/>
         <v>1291027652</v>
       </c>
-      <c r="K72" s="16"/>
-    </row>
-    <row r="73" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="6"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="15"/>
-    </row>
-    <row r="74" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="15"/>
-    </row>
-    <row r="75" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="15"/>
-    </row>
-    <row r="76" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K76" s="15"/>
     </row>
     <row r="77" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" s="17" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="1"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4593,7 +4673,7 @@
       <c r="K77" s="15"/>
     </row>
     <row r="78" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="1"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
@@ -4611,70 +4691,148 @@
       </c>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E79" s="3">
-        <f>C79-D79</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="19">
-        <f>E79-I79</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="3">
-        <f>G79-H79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C80" s="1"/>
+    <row r="79" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="15"/>
+    </row>
+    <row r="80" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="3">
-        <f>C80-D80</f>
-        <v>0</v>
-      </c>
-      <c r="F80" s="19">
-        <f t="shared" ref="F80:F82" si="5">E80-I80</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="3">
-        <f t="shared" ref="I80:I82" si="6">G80-H80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="3">
-        <f>C81-D81</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="19">
-        <f>E81-I81</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="3">
-        <f>G81-H81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="6"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="3">
-        <f t="shared" ref="E82" si="7">C82-D82</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="19">
-        <f t="shared" si="5"/>
+      <c r="E80" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="15"/>
+    </row>
+    <row r="81" spans="3:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="3:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="3">
+      <c r="I82" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E83" s="3">
+        <f>C83-D83</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="19">
+        <f>E83-I83</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <f>G83-H83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="3">
+        <f>C84-D84</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="19">
+        <f t="shared" ref="F84:F86" si="5">E84-I84</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="3">
+        <f t="shared" ref="I84:I86" si="6">G84-H84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3">
+        <f>C85-D85</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="19">
+        <f>E85-I85</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="3">
+        <f>G85-H85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C86" s="6"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="3">
+        <f t="shared" ref="E86" si="7">C86-D86</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4691,17 +4849,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="72.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="72.85546875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,81 +4877,81 @@
       <c r="B3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="37">
         <v>1683</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="37">
         <v>23</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="37">
         <v>31</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="38">
         <v>86</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>74</v>
       </c>
       <c r="E10" t="s">
@@ -4801,22 +4959,22 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="37">
         <v>24</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="38">
         <v>5404</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4824,10 +4982,10 @@
       <c r="B13" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="38">
         <v>7698</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>83</v>
       </c>
       <c r="E13" t="s">
@@ -4835,13 +4993,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="37">
         <v>4829</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4849,13 +5007,13 @@
       <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="37">
         <v>7101</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4863,25 +5021,42 @@
       <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>107</v>
+      <c r="C16" s="37">
+        <v>7112</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>125</v>
       </c>
       <c r="E16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="28">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="37">
         <v>7107</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>118</v>
+      <c r="D17" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="37">
+        <v>7105</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
